--- a/data/cost-of-safety.xlsx
+++ b/data/cost-of-safety.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="75">
   <si>
     <t>TAKEN FROM sumsum-safety.txt</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>TABLE FOR THESIS GRAPHS (copy</t>
+  </si>
+  <si>
+    <t>UPDATED 20180301</t>
   </si>
 </sst>
 </file>
@@ -257,7 +260,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +311,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -319,7 +327,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -397,16 +405,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -445,6 +467,12 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -483,6 +511,12 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -814,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -823,12 +857,12 @@
     <col min="1" max="1" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1">
+    <row r="1" spans="1:18" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -871,16 +905,13 @@
       <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -915,7 +946,7 @@
         <v>98.1</v>
       </c>
       <c r="L4">
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M4">
         <v>30.5</v>
@@ -924,10 +955,10 @@
         <v>73.400000000000006</v>
       </c>
       <c r="O4">
-        <v>71.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -950,7 +981,7 @@
         <v>121.8</v>
       </c>
       <c r="H5">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="I5">
         <v>110.5</v>
@@ -962,7 +993,7 @@
         <v>49.8</v>
       </c>
       <c r="L5">
-        <v>101</v>
+        <v>117.1</v>
       </c>
       <c r="M5">
         <v>-17.2</v>
@@ -971,15 +1002,19 @@
         <v>107.7</v>
       </c>
       <c r="O5">
-        <v>77.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>78.8</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1002,7 +1037,7 @@
         <v>22.2</v>
       </c>
       <c r="H7">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="I7">
         <v>128.4</v>
@@ -1014,7 +1049,7 @@
         <v>125.2</v>
       </c>
       <c r="L7">
-        <v>222.6</v>
+        <v>266.10000000000002</v>
       </c>
       <c r="M7">
         <v>33.9</v>
@@ -1023,10 +1058,10 @@
         <v>91.3</v>
       </c>
       <c r="O7">
-        <v>105.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>108.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1049,7 +1084,7 @@
         <v>125.3</v>
       </c>
       <c r="H8">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>118.9</v>
@@ -1061,7 +1096,7 @@
         <v>53.7</v>
       </c>
       <c r="L8">
-        <v>107.9</v>
+        <v>125.4</v>
       </c>
       <c r="M8">
         <v>-16.399999999999999</v>
@@ -1070,15 +1105,15 @@
         <v>114.7</v>
       </c>
       <c r="O8">
-        <v>81.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1101,7 +1136,7 @@
         <v>33.4</v>
       </c>
       <c r="H10">
-        <v>44.9</v>
+        <v>43</v>
       </c>
       <c r="I10">
         <v>226.6</v>
@@ -1113,7 +1148,7 @@
         <v>203.4</v>
       </c>
       <c r="L10">
-        <v>382.6</v>
+        <v>445.1</v>
       </c>
       <c r="M10">
         <v>43.9</v>
@@ -1122,10 +1157,10 @@
         <v>126.9</v>
       </c>
       <c r="O10">
-        <v>174.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>179.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1148,7 +1183,7 @@
         <v>132.30000000000001</v>
       </c>
       <c r="H11">
-        <v>10.1</v>
+        <v>8</v>
       </c>
       <c r="I11">
         <v>123.2</v>
@@ -1160,7 +1195,7 @@
         <v>61</v>
       </c>
       <c r="L11">
-        <v>127</v>
+        <v>145.30000000000001</v>
       </c>
       <c r="M11">
         <v>-13.9</v>
@@ -1169,15 +1204,15 @@
         <v>118.5</v>
       </c>
       <c r="O11">
-        <v>88.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1200,7 +1235,7 @@
         <v>6.4</v>
       </c>
       <c r="H13">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="I13">
         <v>10.7</v>
@@ -1212,7 +1247,7 @@
         <v>11.7</v>
       </c>
       <c r="L13">
-        <v>18.899999999999999</v>
+        <v>21.4</v>
       </c>
       <c r="M13">
         <v>4.0999999999999996</v>
@@ -1221,10 +1256,10 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="O13">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1259,7 +1294,7 @@
         <v>2.6</v>
       </c>
       <c r="L14">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="M14">
         <v>1.4</v>
@@ -1268,15 +1303,15 @@
         <v>4.7</v>
       </c>
       <c r="O14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="1" customFormat="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:18">
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1406,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
@@ -1383,7 +1418,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1416,7 +1451,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -1432,7 +1467,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>18.899999999999999</v>
+        <v>21.4</v>
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
@@ -1444,7 +1479,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>10.199999999999999</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1457,60 +1492,60 @@
         <v>26</v>
       </c>
       <c r="B21" s="3">
-        <f>B4</f>
+        <f t="shared" ref="B21:O21" si="2">B4</f>
         <v>101.2</v>
       </c>
       <c r="C21" s="3">
-        <f>C4</f>
+        <f t="shared" si="2"/>
         <v>88.5</v>
       </c>
       <c r="D21" s="3">
-        <f>D4</f>
+        <f t="shared" si="2"/>
         <v>65.2</v>
       </c>
       <c r="E21" s="3">
-        <f>E4</f>
+        <f t="shared" si="2"/>
         <v>57.6</v>
       </c>
       <c r="F21" s="3">
-        <f>F4</f>
+        <f t="shared" si="2"/>
         <v>45.7</v>
       </c>
       <c r="G21" s="3">
-        <f>G4</f>
+        <f t="shared" si="2"/>
         <v>19.5</v>
       </c>
       <c r="H21" s="3">
-        <f>H4</f>
+        <f t="shared" si="2"/>
         <v>17.7</v>
       </c>
       <c r="I21" s="3">
-        <f>I4</f>
+        <f t="shared" si="2"/>
         <v>75.7</v>
       </c>
       <c r="J21" s="3">
-        <f>J4</f>
+        <f t="shared" si="2"/>
         <v>86.5</v>
       </c>
       <c r="K21" s="3">
-        <f>K4</f>
+        <f t="shared" si="2"/>
         <v>98.1</v>
       </c>
       <c r="L21" s="3">
-        <f>L4</f>
-        <v>165.4</v>
+        <f t="shared" si="2"/>
+        <v>156.30000000000001</v>
       </c>
       <c r="M21" s="3">
-        <f>M4</f>
+        <f t="shared" si="2"/>
         <v>30.5</v>
       </c>
       <c r="N21" s="3">
-        <f>N4</f>
+        <f t="shared" si="2"/>
         <v>73.400000000000006</v>
       </c>
       <c r="O21" s="3">
-        <f>O4</f>
-        <v>71.2</v>
+        <f t="shared" si="2"/>
+        <v>70.5</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1518,60 +1553,60 @@
         <v>27</v>
       </c>
       <c r="B22" s="3">
-        <f>B7</f>
+        <f t="shared" ref="B22:O22" si="3">B7</f>
         <v>247.5</v>
       </c>
       <c r="C22" s="3">
-        <f>C7</f>
+        <f t="shared" si="3"/>
         <v>153.9</v>
       </c>
       <c r="D22" s="3">
-        <f>D7</f>
+        <f t="shared" si="3"/>
         <v>65.2</v>
       </c>
       <c r="E22" s="3">
-        <f>E7</f>
+        <f t="shared" si="3"/>
         <v>68.2</v>
       </c>
       <c r="F22" s="3">
-        <f>F7</f>
+        <f t="shared" si="3"/>
         <v>60.3</v>
       </c>
       <c r="G22" s="3">
-        <f>G7</f>
+        <f t="shared" si="3"/>
         <v>22.2</v>
       </c>
       <c r="H22" s="3">
-        <f>H7</f>
-        <v>30.4</v>
+        <f t="shared" si="3"/>
+        <v>30.3</v>
       </c>
       <c r="I22" s="3">
-        <f>I7</f>
+        <f t="shared" si="3"/>
         <v>128.4</v>
       </c>
       <c r="J22" s="3">
-        <f>J7</f>
+        <f t="shared" si="3"/>
         <v>120.2</v>
       </c>
       <c r="K22" s="3">
-        <f>K7</f>
+        <f t="shared" si="3"/>
         <v>125.2</v>
       </c>
       <c r="L22" s="3">
-        <f>L7</f>
-        <v>222.6</v>
+        <f t="shared" si="3"/>
+        <v>266.10000000000002</v>
       </c>
       <c r="M22" s="3">
-        <f>M7</f>
+        <f t="shared" si="3"/>
         <v>33.9</v>
       </c>
       <c r="N22" s="3">
-        <f>N7</f>
+        <f t="shared" si="3"/>
         <v>91.3</v>
       </c>
       <c r="O22" s="3">
-        <f>O7</f>
-        <v>105.3</v>
+        <f t="shared" si="3"/>
+        <v>108.7</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1579,60 +1614,60 @@
         <v>28</v>
       </c>
       <c r="B23" s="3">
-        <f>B10</f>
+        <f t="shared" ref="B23:O23" si="4">B10</f>
         <v>393.9</v>
       </c>
       <c r="C23" s="3">
-        <f>C10</f>
+        <f t="shared" si="4"/>
         <v>287.8</v>
       </c>
       <c r="D23" s="3">
-        <f>D10</f>
+        <f t="shared" si="4"/>
         <v>151.69999999999999</v>
       </c>
       <c r="E23" s="3">
-        <f>E10</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F23" s="3">
-        <f>F10</f>
+        <f t="shared" si="4"/>
         <v>80.3</v>
       </c>
       <c r="G23" s="3">
-        <f>G10</f>
+        <f t="shared" si="4"/>
         <v>33.4</v>
       </c>
       <c r="H23" s="3">
-        <f>H10</f>
-        <v>44.9</v>
+        <f t="shared" si="4"/>
+        <v>43</v>
       </c>
       <c r="I23" s="3">
-        <f>I10</f>
+        <f t="shared" si="4"/>
         <v>226.6</v>
       </c>
       <c r="J23" s="3">
-        <f>J10</f>
+        <f t="shared" si="4"/>
         <v>193.2</v>
       </c>
       <c r="K23" s="3">
-        <f>K10</f>
+        <f t="shared" si="4"/>
         <v>203.4</v>
       </c>
       <c r="L23" s="3">
-        <f>L10</f>
-        <v>382.6</v>
+        <f t="shared" si="4"/>
+        <v>445.1</v>
       </c>
       <c r="M23" s="3">
-        <f>M10</f>
+        <f t="shared" si="4"/>
         <v>43.9</v>
       </c>
       <c r="N23" s="3">
-        <f>N10</f>
+        <f t="shared" si="4"/>
         <v>126.9</v>
       </c>
       <c r="O23" s="3">
-        <f>O10</f>
-        <v>174.5</v>
+        <f t="shared" si="4"/>
+        <v>179.2</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1663,56 +1698,56 @@
         <v>72.713717693836998</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25:O25" si="2">(100+C22)/(100+C21)*100-100</f>
+        <f t="shared" ref="C25:O25" si="5">(100+C22)/(100+C21)*100-100</f>
         <v>34.694960212201607</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.7258883248730825</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10.02059025394648</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.2594142259414269</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="2"/>
-        <v>10.790144435004251</v>
+        <f t="shared" si="5"/>
+        <v>10.705182667799491</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>29.994308480364253</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18.069705093833761</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>13.679959616355376</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="2"/>
-        <v>21.552373775433324</v>
+        <f t="shared" si="5"/>
+        <v>42.840421381193892</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.6053639846743266</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10.322952710495969</v>
       </c>
       <c r="O25" s="3">
-        <f t="shared" si="2"/>
-        <v>19.918224299065443</v>
+        <f t="shared" si="5"/>
+        <v>22.404692082111424</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1724,56 +1759,56 @@
         <v>145.47713717693838</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" ref="C26:O26" si="3">(100+C23)/(100+C21)*100-100</f>
+        <f t="shared" ref="C26:O26" si="6">(100+C23)/(100+C21)*100-100</f>
         <v>105.7294429708223</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>52.360774818401921</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26.903553299492387</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23.74742621825672</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.631799163179906</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="3"/>
-        <v>23.10960067969414</v>
+        <f t="shared" si="6"/>
+        <v>21.495327102803728</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>85.885031303358033</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>57.211796246648788</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>53.154972236244333</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="3"/>
-        <v>81.838733986435585</v>
+        <f t="shared" si="6"/>
+        <v>112.68045259461567</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10.268199233716473</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>30.853517877739336</v>
       </c>
       <c r="O26" s="3">
-        <f t="shared" si="3"/>
-        <v>60.338785046728987</v>
+        <f t="shared" si="6"/>
+        <v>63.753665689149557</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1800,60 +1835,60 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <f>B5</f>
+        <f t="shared" ref="B28:O28" si="7">B5</f>
         <v>118.6</v>
       </c>
       <c r="C28" s="3">
-        <f>C5</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="D28" s="3">
-        <f>D5</f>
+        <f t="shared" si="7"/>
         <v>112.3</v>
       </c>
       <c r="E28" s="3">
-        <f>E5</f>
+        <f t="shared" si="7"/>
         <v>55.1</v>
       </c>
       <c r="F28" s="3">
-        <f>F5</f>
+        <f t="shared" si="7"/>
         <v>54.9</v>
       </c>
       <c r="G28" s="3">
-        <f>G5</f>
+        <f t="shared" si="7"/>
         <v>121.8</v>
       </c>
       <c r="H28" s="3">
-        <f>H5</f>
-        <v>3.9</v>
+        <f t="shared" si="7"/>
+        <v>2.5</v>
       </c>
       <c r="I28" s="3">
-        <f>I5</f>
+        <f t="shared" si="7"/>
         <v>110.5</v>
       </c>
       <c r="J28" s="3">
-        <f>J5</f>
+        <f t="shared" si="7"/>
         <v>91.8</v>
       </c>
       <c r="K28" s="3">
-        <f>K5</f>
+        <f t="shared" si="7"/>
         <v>49.8</v>
       </c>
       <c r="L28" s="3">
-        <f>L5</f>
-        <v>101</v>
+        <f t="shared" si="7"/>
+        <v>117.1</v>
       </c>
       <c r="M28" s="3">
-        <f>M5</f>
+        <f t="shared" si="7"/>
         <v>-17.2</v>
       </c>
       <c r="N28" s="3">
-        <f>N5</f>
+        <f t="shared" si="7"/>
         <v>107.7</v>
       </c>
       <c r="O28" s="3">
-        <f>O5</f>
-        <v>77.7</v>
+        <f t="shared" si="7"/>
+        <v>78.8</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1861,60 +1896,60 @@
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <f>B8</f>
+        <f t="shared" ref="B29:O29" si="8">B8</f>
         <v>125.4</v>
       </c>
       <c r="C29" s="3">
-        <f>C8</f>
+        <f t="shared" si="8"/>
         <v>105.4</v>
       </c>
       <c r="D29" s="3">
-        <f>D8</f>
+        <f t="shared" si="8"/>
         <v>112.3</v>
       </c>
       <c r="E29" s="3">
-        <f>E8</f>
+        <f t="shared" si="8"/>
         <v>56.2</v>
       </c>
       <c r="F29" s="3">
-        <f>F8</f>
+        <f t="shared" si="8"/>
         <v>55.7</v>
       </c>
       <c r="G29" s="3">
-        <f>G8</f>
+        <f t="shared" si="8"/>
         <v>125.3</v>
       </c>
       <c r="H29" s="3">
-        <f>H8</f>
-        <v>6.3</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="I29" s="3">
-        <f>I8</f>
+        <f t="shared" si="8"/>
         <v>118.9</v>
       </c>
       <c r="J29" s="3">
-        <f>J8</f>
+        <f t="shared" si="8"/>
         <v>97.5</v>
       </c>
       <c r="K29" s="3">
-        <f>K8</f>
+        <f t="shared" si="8"/>
         <v>53.7</v>
       </c>
       <c r="L29" s="3">
-        <f>L8</f>
-        <v>107.9</v>
+        <f t="shared" si="8"/>
+        <v>125.4</v>
       </c>
       <c r="M29" s="3">
-        <f>M8</f>
+        <f t="shared" si="8"/>
         <v>-16.399999999999999</v>
       </c>
       <c r="N29" s="3">
-        <f>N8</f>
+        <f t="shared" si="8"/>
         <v>114.7</v>
       </c>
       <c r="O29" s="3">
-        <f>O8</f>
-        <v>81.8</v>
+        <f t="shared" si="8"/>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1922,60 +1957,60 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <f>B11</f>
+        <f t="shared" ref="B30:O30" si="9">B11</f>
         <v>132.19999999999999</v>
       </c>
       <c r="C30" s="3">
-        <f>C11</f>
+        <f t="shared" si="9"/>
         <v>113.4</v>
       </c>
       <c r="D30" s="3">
-        <f>D11</f>
+        <f t="shared" si="9"/>
         <v>117.8</v>
       </c>
       <c r="E30" s="3">
-        <f>E11</f>
+        <f t="shared" si="9"/>
         <v>60.1</v>
       </c>
       <c r="F30" s="3">
-        <f>F11</f>
+        <f t="shared" si="9"/>
         <v>59.1</v>
       </c>
       <c r="G30" s="3">
-        <f>G11</f>
+        <f t="shared" si="9"/>
         <v>132.30000000000001</v>
       </c>
       <c r="H30" s="3">
-        <f>H11</f>
-        <v>10.1</v>
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
       <c r="I30" s="3">
-        <f>I11</f>
+        <f t="shared" si="9"/>
         <v>123.2</v>
       </c>
       <c r="J30" s="3">
-        <f>J11</f>
+        <f t="shared" si="9"/>
         <v>107.5</v>
       </c>
       <c r="K30" s="3">
-        <f>K11</f>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="L30" s="3">
-        <f>L11</f>
-        <v>127</v>
+        <f t="shared" si="9"/>
+        <v>145.30000000000001</v>
       </c>
       <c r="M30" s="3">
-        <f>M11</f>
+        <f t="shared" si="9"/>
         <v>-13.9</v>
       </c>
       <c r="N30" s="3">
-        <f>N11</f>
+        <f t="shared" si="9"/>
         <v>118.5</v>
       </c>
       <c r="O30" s="3">
-        <f>O11</f>
-        <v>88.3</v>
+        <f t="shared" si="9"/>
+        <v>89.6</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2006,56 +2041,56 @@
         <v>3.110704483074116</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" ref="C32:O32" si="4">(100+C29)/(100+C28)*100-100</f>
+        <f t="shared" ref="C32:O32" si="10">(100+C29)/(100+C28)*100-100</f>
         <v>2.7000000000000171</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.70921985815601829</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.51646223369914424</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.5779981965734891</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="4"/>
-        <v>2.3099133782483108</v>
+        <f t="shared" si="10"/>
+        <v>2.4390243902439011</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.9904988123515466</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.9718456725755971</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.6034712950600607</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="4"/>
-        <v>3.4328358208955336</v>
+        <f t="shared" si="10"/>
+        <v>3.8231229847996246</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.96618357487923845</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.3702455464612342</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="4"/>
-        <v>2.3072594259988932</v>
+        <f t="shared" si="10"/>
+        <v>2.3489932885905915</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2067,56 +2102,56 @@
         <v>6.2214089661482177</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" ref="C33:O33" si="5">(100+C30)/(100+C28)*100-100</f>
+        <f t="shared" ref="C33:O33" si="11">(100+C30)/(100+C28)*100-100</f>
         <v>6.6999999999999886</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2.5906735751295429</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3.2237266279819323</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>2.7114267269205925</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.733994589720453</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="5"/>
-        <v>5.9672762271414541</v>
+        <f t="shared" si="11"/>
+        <v>5.3658536585365937</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6.033254156769587</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8.1856100104275242</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.476635514018696</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="5"/>
-        <v>12.93532338308458</v>
+        <f t="shared" si="11"/>
+        <v>12.989405803777075</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3.9855072463768124</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.1998074145402029</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="5"/>
-        <v>5.9651097355093015</v>
+        <f t="shared" si="11"/>
+        <v>6.0402684563758129</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1">
@@ -2146,15 +2181,15 @@
         <v>31</v>
       </c>
       <c r="B36">
-        <f ca="1">OFFSET($B$21,0,$J36)</f>
+        <f t="shared" ref="B36:B49" ca="1" si="12">OFFSET($B$21,0,$J36)</f>
         <v>101.2</v>
       </c>
       <c r="C36">
-        <f ca="1">OFFSET($B$21,1,$J36)</f>
+        <f t="shared" ref="C36:C49" ca="1" si="13">OFFSET($B$21,1,$J36)</f>
         <v>247.5</v>
       </c>
       <c r="D36">
-        <f ca="1">OFFSET($B$21,2,$J36)</f>
+        <f t="shared" ref="D36:D49" ca="1" si="14">OFFSET($B$21,2,$J36)</f>
         <v>393.9</v>
       </c>
       <c r="J36">
@@ -2166,15 +2201,15 @@
         <v>32</v>
       </c>
       <c r="B37">
-        <f ca="1">OFFSET($B$21,0,$J37)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>88.5</v>
       </c>
       <c r="C37">
-        <f ca="1">OFFSET($B$21,1,$J37)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>153.9</v>
       </c>
       <c r="D37">
-        <f ca="1">OFFSET($B$21,2,$J37)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>287.8</v>
       </c>
       <c r="J37">
@@ -2186,15 +2221,15 @@
         <v>33</v>
       </c>
       <c r="B38">
-        <f ca="1">OFFSET($B$21,0,$J38)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>65.2</v>
       </c>
       <c r="C38">
-        <f ca="1">OFFSET($B$21,1,$J38)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>65.2</v>
       </c>
       <c r="D38">
-        <f ca="1">OFFSET($B$21,2,$J38)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>151.69999999999999</v>
       </c>
       <c r="J38">
@@ -2206,15 +2241,15 @@
         <v>34</v>
       </c>
       <c r="B39">
-        <f ca="1">OFFSET($B$21,0,$J39)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>57.6</v>
       </c>
       <c r="C39">
-        <f ca="1">OFFSET($B$21,1,$J39)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>68.2</v>
       </c>
       <c r="D39">
-        <f ca="1">OFFSET($B$21,2,$J39)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>100</v>
       </c>
       <c r="J39">
@@ -2226,15 +2261,15 @@
         <v>35</v>
       </c>
       <c r="B40">
-        <f ca="1">OFFSET($B$21,0,$J40)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>45.7</v>
       </c>
       <c r="C40">
-        <f ca="1">OFFSET($B$21,1,$J40)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>60.3</v>
       </c>
       <c r="D40">
-        <f ca="1">OFFSET($B$21,2,$J40)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>80.3</v>
       </c>
       <c r="J40">
@@ -2246,15 +2281,15 @@
         <v>36</v>
       </c>
       <c r="B41">
-        <f ca="1">OFFSET($B$21,0,$J41)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>19.5</v>
       </c>
       <c r="C41">
-        <f ca="1">OFFSET($B$21,1,$J41)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>22.2</v>
       </c>
       <c r="D41">
-        <f ca="1">OFFSET($B$21,2,$J41)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>33.4</v>
       </c>
       <c r="J41">
@@ -2266,16 +2301,16 @@
         <v>37</v>
       </c>
       <c r="B42">
-        <f ca="1">OFFSET($B$21,0,$J42)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>17.7</v>
       </c>
       <c r="C42">
-        <f ca="1">OFFSET($B$21,1,$J42)</f>
-        <v>30.4</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>30.3</v>
       </c>
       <c r="D42">
-        <f ca="1">OFFSET($B$21,2,$J42)</f>
-        <v>44.9</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>43</v>
       </c>
       <c r="J42">
         <v>6</v>
@@ -2286,15 +2321,15 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <f ca="1">OFFSET($B$21,0,$J43)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>75.7</v>
       </c>
       <c r="C43">
-        <f ca="1">OFFSET($B$21,1,$J43)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>128.4</v>
       </c>
       <c r="D43">
-        <f ca="1">OFFSET($B$21,2,$J43)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>226.6</v>
       </c>
       <c r="J43">
@@ -2306,15 +2341,15 @@
         <v>39</v>
       </c>
       <c r="B44">
-        <f ca="1">OFFSET($B$21,0,$J44)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>86.5</v>
       </c>
       <c r="C44">
-        <f ca="1">OFFSET($B$21,1,$J44)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>120.2</v>
       </c>
       <c r="D44">
-        <f ca="1">OFFSET($B$21,2,$J44)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>193.2</v>
       </c>
       <c r="J44">
@@ -2326,15 +2361,15 @@
         <v>40</v>
       </c>
       <c r="B45">
-        <f ca="1">OFFSET($B$21,0,$J45)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>98.1</v>
       </c>
       <c r="C45">
-        <f ca="1">OFFSET($B$21,1,$J45)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>125.2</v>
       </c>
       <c r="D45">
-        <f ca="1">OFFSET($B$21,2,$J45)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>203.4</v>
       </c>
       <c r="J45">
@@ -2346,16 +2381,16 @@
         <v>41</v>
       </c>
       <c r="B46">
-        <f ca="1">OFFSET($B$21,0,$J46)</f>
-        <v>165.4</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>156.30000000000001</v>
       </c>
       <c r="C46">
-        <f ca="1">OFFSET($B$21,1,$J46)</f>
-        <v>222.6</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>266.10000000000002</v>
       </c>
       <c r="D46">
-        <f ca="1">OFFSET($B$21,2,$J46)</f>
-        <v>382.6</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>445.1</v>
       </c>
       <c r="J46">
         <v>10</v>
@@ -2366,15 +2401,15 @@
         <v>42</v>
       </c>
       <c r="B47">
-        <f ca="1">OFFSET($B$21,0,$J47)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>30.5</v>
       </c>
       <c r="C47">
-        <f ca="1">OFFSET($B$21,1,$J47)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>33.9</v>
       </c>
       <c r="D47">
-        <f ca="1">OFFSET($B$21,2,$J47)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>43.9</v>
       </c>
       <c r="J47">
@@ -2386,15 +2421,15 @@
         <v>43</v>
       </c>
       <c r="B48">
-        <f ca="1">OFFSET($B$21,0,$J48)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>73.400000000000006</v>
       </c>
       <c r="C48">
-        <f ca="1">OFFSET($B$21,1,$J48)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>91.3</v>
       </c>
       <c r="D48">
-        <f ca="1">OFFSET($B$21,2,$J48)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>126.9</v>
       </c>
       <c r="J48">
@@ -2406,16 +2441,16 @@
         <v>25</v>
       </c>
       <c r="B49">
-        <f ca="1">OFFSET($B$21,0,$J49)</f>
-        <v>71.2</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>70.5</v>
       </c>
       <c r="C49">
-        <f ca="1">OFFSET($B$21,1,$J49)</f>
-        <v>105.3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>108.7</v>
       </c>
       <c r="D49">
-        <f ca="1">OFFSET($B$21,2,$J49)</f>
-        <v>174.5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>179.2</v>
       </c>
       <c r="J49">
         <v>13</v>
@@ -2432,60 +2467,60 @@
         <v>Array element/object field STORES</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51:O51" si="6">B18</f>
+        <f t="shared" ref="B51:O51" si="15">B18</f>
         <v>18</v>
       </c>
       <c r="C51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>7.8</v>
       </c>
       <c r="D51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.9</v>
       </c>
       <c r="F51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>4.5</v>
       </c>
       <c r="G51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
       <c r="H51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>6.1</v>
       </c>
       <c r="I51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>5.8</v>
       </c>
       <c r="J51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>3.6</v>
       </c>
       <c r="K51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>2.6</v>
       </c>
       <c r="L51">
-        <f t="shared" si="6"/>
-        <v>6.6</v>
+        <f t="shared" si="15"/>
+        <v>10</v>
       </c>
       <c r="M51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1.4</v>
       </c>
       <c r="N51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>4.7</v>
       </c>
       <c r="O51">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>5.3</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -2497,56 +2532,56 @@
         <v>72.713717693836998</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" ref="C52:O52" si="7">C25</f>
+        <f t="shared" ref="C52:O52" si="16">C25</f>
         <v>34.694960212201607</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>6.7258883248730825</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>10.02059025394648</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.2594142259414269</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="7"/>
-        <v>10.790144435004251</v>
+        <f t="shared" si="16"/>
+        <v>10.705182667799491</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>29.994308480364253</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>18.069705093833761</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>13.679959616355376</v>
       </c>
       <c r="L52" s="3">
-        <f t="shared" si="7"/>
-        <v>21.552373775433324</v>
+        <f t="shared" si="16"/>
+        <v>42.840421381193892</v>
       </c>
       <c r="M52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.6053639846743266</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>10.322952710495969</v>
       </c>
       <c r="O52" s="3">
-        <f t="shared" si="7"/>
-        <v>19.918224299065443</v>
+        <f t="shared" si="16"/>
+        <v>22.404692082111424</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -2555,60 +2590,60 @@
         <v>Array element/object field LOADS</v>
       </c>
       <c r="B53">
-        <f t="shared" ref="B53:O53" si="8">B19</f>
+        <f t="shared" ref="B53:O53" si="17">B19</f>
         <v>18</v>
       </c>
       <c r="C53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>15.9</v>
       </c>
       <c r="D53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>7.1</v>
       </c>
       <c r="E53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>8.6</v>
       </c>
       <c r="F53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>6.2</v>
       </c>
       <c r="G53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>6.4</v>
       </c>
       <c r="H53">
-        <f t="shared" si="8"/>
-        <v>6.9</v>
+        <f t="shared" si="17"/>
+        <v>7</v>
       </c>
       <c r="I53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>10.7</v>
       </c>
       <c r="J53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>7.9</v>
       </c>
       <c r="K53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>11.7</v>
       </c>
       <c r="L53">
-        <f t="shared" si="8"/>
-        <v>18.899999999999999</v>
+        <f t="shared" si="17"/>
+        <v>21.4</v>
       </c>
       <c r="M53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="N53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="O53">
-        <f t="shared" si="8"/>
-        <v>10.199999999999999</v>
+        <f t="shared" si="17"/>
+        <v>10.4</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -2620,56 +2655,56 @@
         <v>72.763419483101387</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" ref="C54:O54" si="9">C26-C25</f>
+        <f t="shared" ref="C54:O54" si="18">C26-C25</f>
         <v>71.034482758620697</v>
       </c>
       <c r="D54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>52.360774818401921</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>20.177664974619304</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>13.72683596431024</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>9.3723849372384791</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="9"/>
-        <v>12.319456244689889</v>
+        <f t="shared" si="18"/>
+        <v>10.790144435004237</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>55.89072282299378</v>
       </c>
       <c r="J54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>39.142091152815027</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>39.475012619888957</v>
       </c>
       <c r="L54" s="3">
-        <f t="shared" si="9"/>
-        <v>60.286360211002261</v>
+        <f t="shared" si="18"/>
+        <v>69.840031213421781</v>
       </c>
       <c r="M54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>7.6628352490421463</v>
       </c>
       <c r="N54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>20.530565167243367</v>
       </c>
       <c r="O54" s="3">
-        <f t="shared" si="9"/>
-        <v>40.420560747663544</v>
+        <f t="shared" si="18"/>
+        <v>41.348973607038133</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="1" customFormat="1">
@@ -2717,19 +2752,19 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="3">
-        <f t="shared" ref="A58:A70" ca="1" si="10">OFFSET($B$51,0,$R58)</f>
+        <f t="shared" ref="A58:A70" ca="1" si="19">OFFSET($B$51,0,$R58)</f>
         <v>7.8</v>
       </c>
       <c r="B58" s="3">
-        <f t="shared" ref="B58:B70" ca="1" si="11">OFFSET($B$51,1,$R58)</f>
+        <f t="shared" ref="B58:B70" ca="1" si="20">OFFSET($B$51,1,$R58)</f>
         <v>34.694960212201607</v>
       </c>
       <c r="C58" s="3">
-        <f t="shared" ref="C58:C70" ca="1" si="12">OFFSET($B$51,2,$R58)</f>
+        <f t="shared" ref="C58:C70" ca="1" si="21">OFFSET($B$51,2,$R58)</f>
         <v>15.9</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" ref="D58:D70" ca="1" si="13">OFFSET($B$51,3,$R58)</f>
+        <f t="shared" ref="D58:D70" ca="1" si="22">OFFSET($B$51,3,$R58)</f>
         <v>71.034482758620697</v>
       </c>
       <c r="R58">
@@ -2738,19 +2773,19 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="C59" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v>7.1</v>
       </c>
       <c r="D59" s="3">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="22"/>
         <v>52.360774818401921</v>
       </c>
       <c r="R59">
@@ -2759,19 +2794,19 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>2.9</v>
       </c>
       <c r="B60" s="3">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>6.7258883248730825</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v>8.6</v>
       </c>
       <c r="D60" s="3">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="22"/>
         <v>20.177664974619304</v>
       </c>
       <c r="R60">
@@ -2780,19 +2815,19 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>4.5</v>
       </c>
       <c r="B61" s="3">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>10.02059025394648</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v>6.2</v>
       </c>
       <c r="D61" s="3">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="22"/>
         <v>13.72683596431024</v>
       </c>
       <c r="R61">
@@ -2801,19 +2836,19 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.5</v>
       </c>
       <c r="B62" s="3">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>2.2594142259414269</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v>6.4</v>
       </c>
       <c r="D62" s="3">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="22"/>
         <v>9.3723849372384791</v>
       </c>
       <c r="R62">
@@ -2822,20 +2857,20 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>6.1</v>
       </c>
       <c r="B63" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>10.790144435004251</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>10.705182667799491</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>6.9</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>7</v>
       </c>
       <c r="D63" s="3">
-        <f t="shared" ca="1" si="13"/>
-        <v>12.319456244689889</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>10.790144435004237</v>
       </c>
       <c r="R63">
         <v>6</v>
@@ -2843,19 +2878,19 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>5.8</v>
       </c>
       <c r="B64" s="3">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>29.994308480364253</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v>10.7</v>
       </c>
       <c r="D64" s="3">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="22"/>
         <v>55.89072282299378</v>
       </c>
       <c r="R64">
@@ -2864,19 +2899,19 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>3.6</v>
       </c>
       <c r="B65" s="3">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>18.069705093833761</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v>7.9</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="22"/>
         <v>39.142091152815027</v>
       </c>
       <c r="R65">
@@ -2885,19 +2920,19 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>2.6</v>
       </c>
       <c r="B66" s="3">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>13.679959616355376</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v>11.7</v>
       </c>
       <c r="D66" s="3">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="22"/>
         <v>39.475012619888957</v>
       </c>
       <c r="R66">
@@ -2906,20 +2941,20 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>6.6</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>10</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>21.552373775433324</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>42.840421381193892</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>18.899999999999999</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>21.4</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ca="1" si="13"/>
-        <v>60.286360211002261</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>69.840031213421781</v>
       </c>
       <c r="R67">
         <v>10</v>
@@ -2927,19 +2962,19 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4</v>
       </c>
       <c r="B68" s="3">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>2.6053639846743266</v>
       </c>
       <c r="C68" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="D68" s="3">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="22"/>
         <v>7.6628352490421463</v>
       </c>
       <c r="R68">
@@ -2948,19 +2983,19 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="3">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>4.7</v>
       </c>
       <c r="B69" s="3">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>10.322952710495969</v>
       </c>
       <c r="C69" s="3">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="21"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="D69" s="3">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="22"/>
         <v>20.530565167243367</v>
       </c>
       <c r="R69">
@@ -2969,20 +3004,20 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>5.3</v>
       </c>
       <c r="B70" s="3">
-        <f t="shared" ca="1" si="11"/>
-        <v>19.918224299065443</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>22.404692082111424</v>
       </c>
       <c r="C70" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>10.199999999999999</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>10.4</v>
       </c>
       <c r="D70" s="3">
-        <f t="shared" ca="1" si="13"/>
-        <v>40.420560747663544</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>41.348973607038133</v>
       </c>
       <c r="R70">
         <v>13</v>
@@ -3001,10 +3036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D42"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3087,7 +3122,7 @@
         <v>26.7</v>
       </c>
       <c r="H3">
-        <v>19.600000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="I3">
         <v>106.5</v>
@@ -3099,7 +3134,7 @@
         <v>107.1</v>
       </c>
       <c r="L3">
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M3">
         <v>37.200000000000003</v>
@@ -3108,7 +3143,7 @@
         <v>74.5</v>
       </c>
       <c r="O3">
-        <v>78.599999999999994</v>
+        <v>77.900000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1">
@@ -3162,7 +3197,7 @@
       </c>
       <c r="L5">
         <f>'table&amp;first graph'!L21</f>
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M5">
         <f>'table&amp;first graph'!M21</f>
@@ -3174,7 +3209,7 @@
       </c>
       <c r="O5">
         <f>'table&amp;first graph'!O21</f>
-        <v>71.2</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3207,7 +3242,7 @@
       </c>
       <c r="H6">
         <f>'table&amp;first graph'!H22</f>
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="I6">
         <f>'table&amp;first graph'!I22</f>
@@ -3223,7 +3258,7 @@
       </c>
       <c r="L6">
         <f>'table&amp;first graph'!L22</f>
-        <v>222.6</v>
+        <v>266.10000000000002</v>
       </c>
       <c r="M6">
         <f>'table&amp;first graph'!M22</f>
@@ -3235,7 +3270,7 @@
       </c>
       <c r="O6">
         <f>'table&amp;first graph'!O22</f>
-        <v>105.3</v>
+        <v>108.7</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -3268,7 +3303,7 @@
       </c>
       <c r="H7">
         <f>'table&amp;first graph'!H23</f>
-        <v>44.9</v>
+        <v>43</v>
       </c>
       <c r="I7">
         <f>'table&amp;first graph'!I23</f>
@@ -3284,7 +3319,7 @@
       </c>
       <c r="L7">
         <f>'table&amp;first graph'!L23</f>
-        <v>382.6</v>
+        <v>445.1</v>
       </c>
       <c r="M7">
         <f>'table&amp;first graph'!M23</f>
@@ -3296,7 +3331,7 @@
       </c>
       <c r="O7">
         <f>'table&amp;first graph'!O23</f>
-        <v>174.5</v>
+        <v>179.2</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1">
@@ -3334,7 +3369,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>12.7</v>
+        <v>12.600000000000001</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -3350,7 +3385,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>57.199999999999989</v>
+        <v>109.80000000000001</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
@@ -3362,7 +3397,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>34.099999999999994</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -3395,7 +3430,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>27.2</v>
+        <v>25.3</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
@@ -3411,7 +3446,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>217.20000000000002</v>
+        <v>288.8</v>
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
@@ -3423,7 +3458,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>103.3</v>
+        <v>108.69999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1">
@@ -3461,7 +3496,7 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" si="2"/>
-        <v>8.081818181818182</v>
+        <v>8.0181818181818194</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="2"/>
@@ -3477,7 +3512,7 @@
       </c>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
-        <v>36.399999999999991</v>
+        <v>69.872727272727275</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="2"/>
@@ -3489,7 +3524,7 @@
       </c>
       <c r="O12" s="3">
         <f t="shared" si="2"/>
-        <v>21.699999999999996</v>
+        <v>24.309090909090912</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -3522,7 +3557,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" si="3"/>
-        <v>17.309090909090909</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="3"/>
@@ -3538,7 +3573,7 @@
       </c>
       <c r="L13" s="3">
         <f t="shared" si="3"/>
-        <v>138.21818181818182</v>
+        <v>183.78181818181818</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="3"/>
@@ -3550,7 +3585,7 @@
       </c>
       <c r="O13" s="3">
         <f t="shared" si="3"/>
-        <v>65.736363636363635</v>
+        <v>69.172727272727272</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1">
@@ -3588,7 +3623,7 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" si="4"/>
-        <v>27.681818181818183</v>
+        <v>27.518181818181819</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="4"/>
@@ -3604,7 +3639,7 @@
       </c>
       <c r="L15" s="3">
         <f t="shared" si="4"/>
-        <v>201.8</v>
+        <v>226.17272727272729</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="4"/>
@@ -3616,7 +3651,7 @@
       </c>
       <c r="O15" s="3">
         <f t="shared" si="4"/>
-        <v>100.29999999999998</v>
+        <v>102.20909090909092</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -3649,7 +3684,7 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" si="5"/>
-        <v>36.909090909090907</v>
+        <v>35.6</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="5"/>
@@ -3665,7 +3700,7 @@
       </c>
       <c r="L16" s="3">
         <f t="shared" si="5"/>
-        <v>303.61818181818182</v>
+        <v>340.08181818181822</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="5"/>
@@ -3677,7 +3712,7 @@
       </c>
       <c r="O16" s="3">
         <f t="shared" si="5"/>
-        <v>144.33636363636361</v>
+        <v>147.07272727272726</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="4" customFormat="1">
@@ -3715,7 +3750,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="6"/>
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="I18">
         <f t="shared" si="6"/>
@@ -3731,7 +3766,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="6"/>
-        <v>222.6</v>
+        <v>266.10000000000002</v>
       </c>
       <c r="M18">
         <f t="shared" si="6"/>
@@ -3743,7 +3778,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="6"/>
-        <v>105.3</v>
+        <v>108.7</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3776,7 +3811,7 @@
       </c>
       <c r="H19" s="3">
         <f t="shared" si="7"/>
-        <v>27.681818181818183</v>
+        <v>27.518181818181819</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="7"/>
@@ -3792,7 +3827,7 @@
       </c>
       <c r="L19" s="3">
         <f t="shared" si="7"/>
-        <v>201.8</v>
+        <v>226.17272727272729</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="7"/>
@@ -3804,7 +3839,7 @@
       </c>
       <c r="O19" s="3">
         <f t="shared" si="7"/>
-        <v>100.29999999999998</v>
+        <v>102.20909090909092</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3837,7 +3872,7 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" si="8"/>
-        <v>-2.7181818181818151</v>
+        <v>-2.7818181818181813</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="8"/>
@@ -3853,7 +3888,7 @@
       </c>
       <c r="L20" s="3">
         <f t="shared" si="8"/>
-        <v>-20.799999999999983</v>
+        <v>-39.927272727272737</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="8"/>
@@ -3865,7 +3900,7 @@
       </c>
       <c r="O20" s="3">
         <f t="shared" si="8"/>
-        <v>-5.0000000000000142</v>
+        <v>-6.490909090909085</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3898,7 +3933,7 @@
       </c>
       <c r="H22">
         <f t="shared" si="9"/>
-        <v>44.9</v>
+        <v>43</v>
       </c>
       <c r="I22">
         <f t="shared" si="9"/>
@@ -3914,7 +3949,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="9"/>
-        <v>382.6</v>
+        <v>445.1</v>
       </c>
       <c r="M22">
         <f t="shared" si="9"/>
@@ -3926,7 +3961,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="9"/>
-        <v>174.5</v>
+        <v>179.2</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3959,7 +3994,7 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" si="10"/>
-        <v>36.909090909090907</v>
+        <v>35.6</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="10"/>
@@ -3975,7 +4010,7 @@
       </c>
       <c r="L23" s="3">
         <f t="shared" si="10"/>
-        <v>303.61818181818182</v>
+        <v>340.08181818181822</v>
       </c>
       <c r="M23" s="3">
         <f t="shared" si="10"/>
@@ -3987,7 +4022,7 @@
       </c>
       <c r="O23" s="3">
         <f t="shared" si="10"/>
-        <v>144.33636363636361</v>
+        <v>147.07272727272726</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -4020,7 +4055,7 @@
       </c>
       <c r="H24" s="3">
         <f t="shared" si="11"/>
-        <v>-7.9909090909090921</v>
+        <v>-7.3999999999999986</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="11"/>
@@ -4036,7 +4071,7 @@
       </c>
       <c r="L24" s="3">
         <f t="shared" si="11"/>
-        <v>-78.981818181818198</v>
+        <v>-105.0181818181818</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="11"/>
@@ -4048,7 +4083,7 @@
       </c>
       <c r="O24" s="3">
         <f t="shared" si="11"/>
-        <v>-30.163636363636385</v>
+        <v>-32.127272727272725</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1">
@@ -4300,29 +4335,29 @@
       </c>
       <c r="B35" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>27.681818181818183</v>
+        <v>27.518181818181819</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>-2.7181818181818151</v>
+        <v>-2.7818181818181813</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>44.9</v>
+        <v>43</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>36.909090909090907</v>
+        <v>35.6</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>-7.9909090909090921</v>
+        <v>-7.3999999999999986</v>
       </c>
       <c r="R35">
         <v>6</v>
@@ -4436,29 +4471,29 @@
       </c>
       <c r="B39" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>222.6</v>
+        <v>266.10000000000002</v>
       </c>
       <c r="C39" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>201.8</v>
+        <v>226.17272727272729</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>-20.799999999999983</v>
+        <v>-39.927272727272737</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>382.6</v>
+        <v>445.1</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>303.61818181818182</v>
+        <v>340.08181818181822</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>-78.981818181818198</v>
+        <v>-105.0181818181818</v>
       </c>
       <c r="R39">
         <v>10</v>
@@ -4538,33 +4573,39 @@
       </c>
       <c r="B42" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>105.3</v>
+        <v>108.7</v>
       </c>
       <c r="C42" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>100.29999999999998</v>
+        <v>102.20909090909092</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>-5.0000000000000142</v>
+        <v>-6.490909090909085</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>174.5</v>
+        <v>179.2</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>144.33636363636361</v>
+        <v>147.07272727272726</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>-30.163636363636385</v>
+        <v>-32.127272727272725</v>
       </c>
       <c r="R42">
         <v>13</v>
       </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/cost-of-safety.xlsx
+++ b/data/cost-of-safety.xlsx
@@ -327,8 +327,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -428,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -473,6 +483,11 @@
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -517,6 +532,11 @@
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -848,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3038,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D42" sqref="A27:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/cost-of-safety.xlsx
+++ b/data/cost-of-safety.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33520" windowHeight="20520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table&amp;first graph" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
     <t>TABLE FOR THESIS GRAPHS (copy</t>
   </si>
   <si>
-    <t>UPDATED 20180301</t>
+    <t>UPDATED 20180305</t>
   </si>
 </sst>
 </file>
@@ -313,7 +313,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,8 +327,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -435,10 +443,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -488,6 +496,10 @@
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -537,6 +549,10 @@
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -868,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:O33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -960,10 +976,10 @@
         <v>75.7</v>
       </c>
       <c r="J4">
-        <v>86.5</v>
+        <v>84.6</v>
       </c>
       <c r="K4">
-        <v>98.1</v>
+        <v>97</v>
       </c>
       <c r="L4">
         <v>156.30000000000001</v>
@@ -975,7 +991,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="O4">
-        <v>70.5</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1007,10 +1023,10 @@
         <v>110.5</v>
       </c>
       <c r="J5">
-        <v>91.8</v>
+        <v>88.6</v>
       </c>
       <c r="K5">
-        <v>49.8</v>
+        <v>50.7</v>
       </c>
       <c r="L5">
         <v>117.1</v>
@@ -1022,12 +1038,12 @@
         <v>107.7</v>
       </c>
       <c r="O5">
-        <v>78.8</v>
-      </c>
-      <c r="Q5" s="6" t="s">
+        <v>78.7</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="R5" s="6"/>
+      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
@@ -1063,10 +1079,10 @@
         <v>128.4</v>
       </c>
       <c r="J7">
-        <v>120.2</v>
+        <v>118.4</v>
       </c>
       <c r="K7">
-        <v>125.2</v>
+        <v>124</v>
       </c>
       <c r="L7">
         <v>266.10000000000002</v>
@@ -1078,7 +1094,7 @@
         <v>91.3</v>
       </c>
       <c r="O7">
-        <v>108.7</v>
+        <v>108.4</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1110,10 +1126,10 @@
         <v>118.9</v>
       </c>
       <c r="J8">
-        <v>97.5</v>
+        <v>94.3</v>
       </c>
       <c r="K8">
-        <v>53.7</v>
+        <v>54.5</v>
       </c>
       <c r="L8">
         <v>125.4</v>
@@ -1125,7 +1141,7 @@
         <v>114.7</v>
       </c>
       <c r="O8">
-        <v>83</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1162,10 +1178,10 @@
         <v>226.6</v>
       </c>
       <c r="J10">
-        <v>193.2</v>
+        <v>179.8</v>
       </c>
       <c r="K10">
-        <v>203.4</v>
+        <v>202.2</v>
       </c>
       <c r="L10">
         <v>445.1</v>
@@ -1177,7 +1193,7 @@
         <v>126.9</v>
       </c>
       <c r="O10">
-        <v>179.2</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1209,10 +1225,10 @@
         <v>123.2</v>
       </c>
       <c r="J11">
-        <v>107.5</v>
+        <v>102.9</v>
       </c>
       <c r="K11">
-        <v>61</v>
+        <v>61.8</v>
       </c>
       <c r="L11">
         <v>145.30000000000001</v>
@@ -1224,7 +1240,7 @@
         <v>118.5</v>
       </c>
       <c r="O11">
-        <v>89.6</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1">
@@ -1264,7 +1280,7 @@
         <v>7.9</v>
       </c>
       <c r="K13">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="L13">
         <v>21.4</v>
@@ -1308,7 +1324,7 @@
         <v>5.8</v>
       </c>
       <c r="J14">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K14">
         <v>2.6</v>
@@ -1418,7 +1434,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
@@ -1483,7 +1499,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
@@ -1545,11 +1561,11 @@
       </c>
       <c r="J21" s="3">
         <f t="shared" si="2"/>
-        <v>86.5</v>
+        <v>84.6</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="2"/>
-        <v>98.1</v>
+        <v>97</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="2"/>
@@ -1565,7 +1581,7 @@
       </c>
       <c r="O21" s="3">
         <f t="shared" si="2"/>
-        <v>70.5</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1606,11 +1622,11 @@
       </c>
       <c r="J22" s="3">
         <f t="shared" si="3"/>
-        <v>120.2</v>
+        <v>118.4</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="3"/>
-        <v>125.2</v>
+        <v>124</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="3"/>
@@ -1626,7 +1642,7 @@
       </c>
       <c r="O22" s="3">
         <f t="shared" si="3"/>
-        <v>108.7</v>
+        <v>108.4</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1667,11 +1683,11 @@
       </c>
       <c r="J23" s="3">
         <f t="shared" si="4"/>
-        <v>193.2</v>
+        <v>179.8</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="4"/>
-        <v>203.4</v>
+        <v>202.2</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="4"/>
@@ -1687,7 +1703,7 @@
       </c>
       <c r="O23" s="3">
         <f t="shared" si="4"/>
-        <v>179.2</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1747,11 +1763,11 @@
       </c>
       <c r="J25" s="3">
         <f t="shared" si="5"/>
-        <v>18.069705093833761</v>
+        <v>18.309859154929569</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="5"/>
-        <v>13.679959616355376</v>
+        <v>13.705583756345192</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="5"/>
@@ -1767,7 +1783,7 @@
       </c>
       <c r="O25" s="3">
         <f t="shared" si="5"/>
-        <v>22.404692082111424</v>
+        <v>22.444183313748539</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1808,11 +1824,11 @@
       </c>
       <c r="J26" s="3">
         <f t="shared" si="6"/>
-        <v>57.211796246648788</v>
+        <v>51.570964247020584</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="6"/>
-        <v>53.154972236244333</v>
+        <v>53.401015228426388</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="6"/>
@@ -1828,7 +1844,7 @@
       </c>
       <c r="O26" s="3">
         <f t="shared" si="6"/>
-        <v>63.753665689149557</v>
+        <v>63.33725029377203</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1888,11 +1904,11 @@
       </c>
       <c r="J28" s="3">
         <f t="shared" si="7"/>
-        <v>91.8</v>
+        <v>88.6</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="7"/>
-        <v>49.8</v>
+        <v>50.7</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="7"/>
@@ -1908,7 +1924,7 @@
       </c>
       <c r="O28" s="3">
         <f t="shared" si="7"/>
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1949,11 +1965,11 @@
       </c>
       <c r="J29" s="3">
         <f t="shared" si="8"/>
-        <v>97.5</v>
+        <v>94.3</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" si="8"/>
-        <v>53.7</v>
+        <v>54.5</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="8"/>
@@ -1969,7 +1985,7 @@
       </c>
       <c r="O29" s="3">
         <f t="shared" si="8"/>
-        <v>83</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2010,11 +2026,11 @@
       </c>
       <c r="J30" s="3">
         <f t="shared" si="9"/>
-        <v>107.5</v>
+        <v>102.9</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="9"/>
-        <v>61</v>
+        <v>61.8</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="9"/>
@@ -2030,7 +2046,7 @@
       </c>
       <c r="O30" s="3">
         <f t="shared" si="9"/>
-        <v>89.6</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2090,11 +2106,11 @@
       </c>
       <c r="J32" s="3">
         <f t="shared" si="10"/>
-        <v>2.9718456725755971</v>
+        <v>3.0222693531283227</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="10"/>
-        <v>2.6034712950600607</v>
+        <v>2.5215660252156766</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="10"/>
@@ -2110,7 +2126,7 @@
       </c>
       <c r="O32" s="3">
         <f t="shared" si="10"/>
-        <v>2.3489932885905915</v>
+        <v>2.2943480693900682</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2151,11 +2167,11 @@
       </c>
       <c r="J33" s="3">
         <f t="shared" si="11"/>
-        <v>8.1856100104275242</v>
+        <v>7.5821845174973532</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="11"/>
-        <v>7.476635514018696</v>
+        <v>7.3656270736562846</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="11"/>
@@ -2171,7 +2187,7 @@
       </c>
       <c r="O33" s="3">
         <f t="shared" si="11"/>
-        <v>6.0402684563758129</v>
+        <v>5.9317291550084121</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1">
@@ -2362,15 +2378,15 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="12"/>
-        <v>86.5</v>
+        <v>84.6</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="13"/>
-        <v>120.2</v>
+        <v>118.4</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="14"/>
-        <v>193.2</v>
+        <v>179.8</v>
       </c>
       <c r="J44">
         <v>8</v>
@@ -2382,15 +2398,15 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="12"/>
-        <v>98.1</v>
+        <v>97</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="13"/>
-        <v>125.2</v>
+        <v>124</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="14"/>
-        <v>203.4</v>
+        <v>202.2</v>
       </c>
       <c r="J45">
         <v>9</v>
@@ -2462,15 +2478,15 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="12"/>
-        <v>70.5</v>
+        <v>70.2</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="13"/>
-        <v>108.7</v>
+        <v>108.4</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="14"/>
-        <v>179.2</v>
+        <v>178</v>
       </c>
       <c r="J49">
         <v>13</v>
@@ -2520,7 +2536,7 @@
       </c>
       <c r="J51">
         <f t="shared" si="15"/>
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K51">
         <f t="shared" si="15"/>
@@ -2581,11 +2597,11 @@
       </c>
       <c r="J52" s="3">
         <f t="shared" si="16"/>
-        <v>18.069705093833761</v>
+        <v>18.309859154929569</v>
       </c>
       <c r="K52" s="3">
         <f t="shared" si="16"/>
-        <v>13.679959616355376</v>
+        <v>13.705583756345192</v>
       </c>
       <c r="L52" s="3">
         <f t="shared" si="16"/>
@@ -2601,7 +2617,7 @@
       </c>
       <c r="O52" s="3">
         <f t="shared" si="16"/>
-        <v>22.404692082111424</v>
+        <v>22.444183313748539</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -2647,7 +2663,7 @@
       </c>
       <c r="K53">
         <f t="shared" si="17"/>
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="L53">
         <f t="shared" si="17"/>
@@ -2704,11 +2720,11 @@
       </c>
       <c r="J54" s="3">
         <f t="shared" si="18"/>
-        <v>39.142091152815027</v>
+        <v>33.261105092091015</v>
       </c>
       <c r="K54" s="3">
         <f t="shared" si="18"/>
-        <v>39.475012619888957</v>
+        <v>39.695431472081196</v>
       </c>
       <c r="L54" s="3">
         <f t="shared" si="18"/>
@@ -2724,7 +2740,7 @@
       </c>
       <c r="O54" s="3">
         <f t="shared" si="18"/>
-        <v>41.348973607038133</v>
+        <v>40.893066980023491</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="1" customFormat="1">
@@ -2920,11 +2936,11 @@
     <row r="65" spans="1:18">
       <c r="A65" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="B65" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>18.069705093833761</v>
+        <v>18.309859154929569</v>
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="21"/>
@@ -2932,7 +2948,7 @@
       </c>
       <c r="D65" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>39.142091152815027</v>
+        <v>33.261105092091015</v>
       </c>
       <c r="R65">
         <v>8</v>
@@ -2945,15 +2961,15 @@
       </c>
       <c r="B66" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>13.679959616355376</v>
+        <v>13.705583756345192</v>
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D66" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>39.475012619888957</v>
+        <v>39.695431472081196</v>
       </c>
       <c r="R66">
         <v>9</v>
@@ -3029,7 +3045,7 @@
       </c>
       <c r="B70" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>22.404692082111424</v>
+        <v>22.444183313748539</v>
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="21"/>
@@ -3037,7 +3053,7 @@
       </c>
       <c r="D70" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>41.348973607038133</v>
+        <v>40.893066980023491</v>
       </c>
       <c r="R70">
         <v>13</v>
@@ -3058,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D42" sqref="A27:D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3148,10 +3164,10 @@
         <v>106.5</v>
       </c>
       <c r="J3">
-        <v>87.3</v>
+        <v>85.5</v>
       </c>
       <c r="K3">
-        <v>107.1</v>
+        <v>106</v>
       </c>
       <c r="L3">
         <v>156.30000000000001</v>
@@ -3163,7 +3179,7 @@
         <v>74.5</v>
       </c>
       <c r="O3">
-        <v>77.900000000000006</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1">
@@ -3209,11 +3225,11 @@
       </c>
       <c r="J5">
         <f>'table&amp;first graph'!J21</f>
-        <v>86.5</v>
+        <v>84.6</v>
       </c>
       <c r="K5">
         <f>'table&amp;first graph'!K21</f>
-        <v>98.1</v>
+        <v>97</v>
       </c>
       <c r="L5">
         <f>'table&amp;first graph'!L21</f>
@@ -3229,7 +3245,7 @@
       </c>
       <c r="O5">
         <f>'table&amp;first graph'!O21</f>
-        <v>70.5</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3270,11 +3286,11 @@
       </c>
       <c r="J6">
         <f>'table&amp;first graph'!J22</f>
-        <v>120.2</v>
+        <v>118.4</v>
       </c>
       <c r="K6">
         <f>'table&amp;first graph'!K22</f>
-        <v>125.2</v>
+        <v>124</v>
       </c>
       <c r="L6">
         <f>'table&amp;first graph'!L22</f>
@@ -3290,7 +3306,7 @@
       </c>
       <c r="O6">
         <f>'table&amp;first graph'!O22</f>
-        <v>108.7</v>
+        <v>108.4</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -3331,11 +3347,11 @@
       </c>
       <c r="J7">
         <f>'table&amp;first graph'!J23</f>
-        <v>193.2</v>
+        <v>179.8</v>
       </c>
       <c r="K7">
         <f>'table&amp;first graph'!K23</f>
-        <v>203.4</v>
+        <v>202.2</v>
       </c>
       <c r="L7">
         <f>'table&amp;first graph'!L23</f>
@@ -3351,7 +3367,7 @@
       </c>
       <c r="O7">
         <f>'table&amp;first graph'!O23</f>
-        <v>179.2</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1">
@@ -3397,11 +3413,11 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>33.700000000000003</v>
+        <v>33.800000000000011</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>27.100000000000009</v>
+        <v>27</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
@@ -3458,11 +3474,11 @@
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>106.69999999999999</v>
+        <v>95.200000000000017</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>105.30000000000001</v>
+        <v>105.19999999999999</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
@@ -3478,7 +3494,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>108.69999999999999</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1">
@@ -3524,11 +3540,11 @@
       </c>
       <c r="J12" s="3">
         <f t="shared" si="2"/>
-        <v>21.445454545454549</v>
+        <v>21.509090909090915</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="2"/>
-        <v>17.24545454545455</v>
+        <v>17.181818181818183</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
@@ -3585,11 +3601,11 @@
       </c>
       <c r="J13" s="3">
         <f t="shared" si="3"/>
-        <v>67.899999999999991</v>
+        <v>60.581818181818193</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="3"/>
-        <v>67.009090909090915</v>
+        <v>66.945454545454538</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="3"/>
@@ -3605,7 +3621,7 @@
       </c>
       <c r="O13" s="3">
         <f t="shared" si="3"/>
-        <v>69.172727272727272</v>
+        <v>68.599999999999994</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1">
@@ -3651,11 +3667,11 @@
       </c>
       <c r="J15" s="3">
         <f t="shared" si="4"/>
-        <v>108.74545454545455</v>
+        <v>107.00909090909092</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="4"/>
-        <v>124.34545454545454</v>
+        <v>123.18181818181819</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="4"/>
@@ -3671,7 +3687,7 @@
       </c>
       <c r="O15" s="3">
         <f t="shared" si="4"/>
-        <v>102.20909090909092</v>
+        <v>102.00909090909092</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -3712,11 +3728,11 @@
       </c>
       <c r="J16" s="3">
         <f t="shared" si="5"/>
-        <v>155.19999999999999</v>
+        <v>146.08181818181819</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="5"/>
-        <v>174.10909090909092</v>
+        <v>172.94545454545454</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="5"/>
@@ -3732,7 +3748,7 @@
       </c>
       <c r="O16" s="3">
         <f t="shared" si="5"/>
-        <v>147.07272727272726</v>
+        <v>146.30000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="4" customFormat="1">
@@ -3778,11 +3794,11 @@
       </c>
       <c r="J18">
         <f t="shared" si="6"/>
-        <v>120.2</v>
+        <v>118.4</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>125.2</v>
+        <v>124</v>
       </c>
       <c r="L18">
         <f t="shared" si="6"/>
@@ -3798,7 +3814,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="6"/>
-        <v>108.7</v>
+        <v>108.4</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3839,11 +3855,11 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" si="7"/>
-        <v>108.74545454545455</v>
+        <v>107.00909090909092</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="7"/>
-        <v>124.34545454545454</v>
+        <v>123.18181818181819</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="7"/>
@@ -3859,7 +3875,7 @@
       </c>
       <c r="O19" s="3">
         <f t="shared" si="7"/>
-        <v>102.20909090909092</v>
+        <v>102.00909090909092</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3900,11 +3916,11 @@
       </c>
       <c r="J20" s="3">
         <f t="shared" si="8"/>
-        <v>-11.454545454545453</v>
+        <v>-11.390909090909091</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="8"/>
-        <v>-0.85454545454545894</v>
+        <v>-0.81818181818181301</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="8"/>
@@ -3920,7 +3936,7 @@
       </c>
       <c r="O20" s="3">
         <f t="shared" si="8"/>
-        <v>-6.490909090909085</v>
+        <v>-6.3909090909090907</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3961,11 +3977,11 @@
       </c>
       <c r="J22">
         <f t="shared" si="9"/>
-        <v>193.2</v>
+        <v>179.8</v>
       </c>
       <c r="K22">
         <f t="shared" si="9"/>
-        <v>203.4</v>
+        <v>202.2</v>
       </c>
       <c r="L22">
         <f t="shared" si="9"/>
@@ -3981,7 +3997,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="9"/>
-        <v>179.2</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -4022,11 +4038,11 @@
       </c>
       <c r="J23" s="3">
         <f t="shared" si="10"/>
-        <v>155.19999999999999</v>
+        <v>146.08181818181819</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="10"/>
-        <v>174.10909090909092</v>
+        <v>172.94545454545454</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="10"/>
@@ -4042,7 +4058,7 @@
       </c>
       <c r="O23" s="3">
         <f t="shared" si="10"/>
-        <v>147.07272727272726</v>
+        <v>146.30000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -4083,11 +4099,11 @@
       </c>
       <c r="J24" s="3">
         <f t="shared" si="11"/>
-        <v>-38</v>
+        <v>-33.718181818181819</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="11"/>
-        <v>-29.290909090909082</v>
+        <v>-29.25454545454545</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="11"/>
@@ -4103,7 +4119,7 @@
       </c>
       <c r="O24" s="3">
         <f t="shared" si="11"/>
-        <v>-32.127272727272725</v>
+        <v>-31.699999999999989</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1">
@@ -4423,29 +4439,29 @@
       </c>
       <c r="B37" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>120.2</v>
+        <v>118.4</v>
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>108.74545454545455</v>
+        <v>107.00909090909092</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>-11.454545454545453</v>
+        <v>-11.390909090909091</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>193.2</v>
+        <v>179.8</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>155.19999999999999</v>
+        <v>146.08181818181819</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>-38</v>
+        <v>-33.718181818181819</v>
       </c>
       <c r="R37">
         <v>8</v>
@@ -4457,29 +4473,29 @@
       </c>
       <c r="B38" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>125.2</v>
+        <v>124</v>
       </c>
       <c r="C38" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>124.34545454545454</v>
+        <v>123.18181818181819</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.85454545454545894</v>
+        <v>-0.81818181818181301</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>203.4</v>
+        <v>202.2</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>174.10909090909092</v>
+        <v>172.94545454545454</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>-29.290909090909082</v>
+        <v>-29.25454545454545</v>
       </c>
       <c r="R38">
         <v>9</v>
@@ -4593,39 +4609,39 @@
       </c>
       <c r="B42" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>108.7</v>
+        <v>108.4</v>
       </c>
       <c r="C42" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>102.20909090909092</v>
+        <v>102.00909090909092</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>-6.490909090909085</v>
+        <v>-6.3909090909090907</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>179.2</v>
+        <v>178</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>147.07272727272726</v>
+        <v>146.30000000000001</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>-32.127272727272725</v>
+        <v>-31.699999999999989</v>
       </c>
       <c r="R42">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/cost-of-safety.xlsx
+++ b/data/cost-of-safety.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33520" windowHeight="20520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="table&amp;first graph" sheetId="1" r:id="rId1"/>
@@ -327,8 +327,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -446,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -500,6 +508,10 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -553,6 +565,10 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -884,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3074,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D42" sqref="B29:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/cost-of-safety.xlsx
+++ b/data/cost-of-safety.xlsx
@@ -327,8 +327,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -454,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="119">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -512,6 +516,8 @@
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -569,6 +575,8 @@
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -900,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:D70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1364,183 +1372,212 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="B16" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <f>B14</f>
         <v>18</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <f t="shared" ref="C18:O18" si="0">C14</f>
         <v>7.8</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <f t="shared" si="0"/>
         <v>6.1</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <f t="shared" si="0"/>
         <v>3.7</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="3">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="3">
         <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="3">
         <f t="shared" si="0"/>
         <v>5.3</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <f>B13</f>
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <f t="shared" ref="C19:O19" si="1">C13</f>
         <v>15.9</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <f t="shared" si="1"/>
         <v>7.1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <f t="shared" si="1"/>
         <v>8.6</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <f t="shared" si="1"/>
         <v>10.7</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <f t="shared" si="1"/>
         <v>7.9</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <f t="shared" si="1"/>
         <v>11.6</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <f t="shared" si="1"/>
         <v>21.4</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <f t="shared" si="1"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <f t="shared" si="1"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <f t="shared" si="1"/>
         <v>10.4</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="3">
@@ -1601,7 +1638,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="3">
@@ -1662,7 +1699,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="3">
@@ -1723,7 +1760,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="3"/>
@@ -1742,7 +1779,7 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="3">
@@ -1803,7 +1840,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="3">
@@ -1864,7 +1901,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="3"/>
@@ -1883,7 +1920,7 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="3">
@@ -1944,7 +1981,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="3">
@@ -2005,7 +2042,7 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="3">
@@ -2066,7 +2103,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="3"/>
@@ -2085,7 +2122,7 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="3">
@@ -2146,7 +2183,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="3">

--- a/data/cost-of-safety.xlsx
+++ b/data/cost-of-safety.xlsx
@@ -909,7 +909,7 @@
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:O33"/>
+      <selection activeCell="H23" sqref="H23:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/cost-of-safety.xlsx
+++ b/data/cost-of-safety.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="table&amp;first graph" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
   <si>
     <t>TAKEN FROM sumsum-safety.txt</t>
   </si>
@@ -244,7 +244,10 @@
     <t>TABLE FOR THESIS GRAPHS (copy</t>
   </si>
   <si>
-    <t>UPDATED 20180305</t>
+    <t>coremk_ch2</t>
+  </si>
+  <si>
+    <t>UPDATED 20180326</t>
   </si>
 </sst>
 </file>
@@ -254,7 +257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,6 +288,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -313,7 +323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +337,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="119">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -447,8 +457,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -457,8 +475,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="119">
+  <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -518,6 +538,10 @@
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -577,6 +601,10 @@
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -908,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:N23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -954,7 +982,7 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -1003,7 +1031,7 @@
         <v>84.6</v>
       </c>
       <c r="K4">
-        <v>97</v>
+        <v>58.9</v>
       </c>
       <c r="L4">
         <v>156.30000000000001</v>
@@ -1012,10 +1040,10 @@
         <v>30.5</v>
       </c>
       <c r="N4">
-        <v>73.400000000000006</v>
+        <v>70.2</v>
       </c>
       <c r="O4">
-        <v>70.2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1050,7 +1078,7 @@
         <v>88.6</v>
       </c>
       <c r="K5">
-        <v>50.7</v>
+        <v>46.7</v>
       </c>
       <c r="L5">
         <v>117.1</v>
@@ -1059,15 +1087,15 @@
         <v>-17.2</v>
       </c>
       <c r="N5">
-        <v>107.7</v>
+        <v>95.4</v>
       </c>
       <c r="O5">
-        <v>78.7</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="R5" s="7"/>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
@@ -1106,7 +1134,7 @@
         <v>118.4</v>
       </c>
       <c r="K7">
-        <v>124</v>
+        <v>76.7</v>
       </c>
       <c r="L7">
         <v>266.10000000000002</v>
@@ -1115,10 +1143,10 @@
         <v>33.9</v>
       </c>
       <c r="N7">
-        <v>91.3</v>
+        <v>88.2</v>
       </c>
       <c r="O7">
-        <v>108.4</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1153,7 +1181,7 @@
         <v>94.3</v>
       </c>
       <c r="K8">
-        <v>54.5</v>
+        <v>50.5</v>
       </c>
       <c r="L8">
         <v>125.4</v>
@@ -1162,10 +1190,10 @@
         <v>-16.399999999999999</v>
       </c>
       <c r="N8">
-        <v>114.7</v>
+        <v>102.6</v>
       </c>
       <c r="O8">
-        <v>82.8</v>
+        <v>81.599999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1205,7 +1233,7 @@
         <v>179.8</v>
       </c>
       <c r="K10">
-        <v>202.2</v>
+        <v>155</v>
       </c>
       <c r="L10">
         <v>445.1</v>
@@ -1214,10 +1242,10 @@
         <v>43.9</v>
       </c>
       <c r="N10">
-        <v>126.9</v>
+        <v>120.8</v>
       </c>
       <c r="O10">
-        <v>178</v>
+        <v>173.9</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1252,7 +1280,7 @@
         <v>102.9</v>
       </c>
       <c r="K11">
-        <v>61.8</v>
+        <v>58.2</v>
       </c>
       <c r="L11">
         <v>145.30000000000001</v>
@@ -1261,10 +1289,10 @@
         <v>-13.9</v>
       </c>
       <c r="N11">
-        <v>118.5</v>
+        <v>106.2</v>
       </c>
       <c r="O11">
-        <v>89.3</v>
+        <v>88.1</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1">
@@ -1304,7 +1332,7 @@
         <v>7.9</v>
       </c>
       <c r="K13">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="L13">
         <v>21.4</v>
@@ -1313,10 +1341,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="N13">
-        <v>9.8000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="O13">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1538,7 +1566,7 @@
       </c>
       <c r="K19" s="3">
         <f t="shared" si="1"/>
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="1"/>
@@ -1550,11 +1578,11 @@
       </c>
       <c r="N19" s="3">
         <f t="shared" si="1"/>
-        <v>9.8000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="1"/>
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1618,7 +1646,7 @@
       </c>
       <c r="K21" s="3">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>58.9</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="2"/>
@@ -1630,11 +1658,11 @@
       </c>
       <c r="N21" s="3">
         <f t="shared" si="2"/>
-        <v>73.400000000000006</v>
+        <v>70.2</v>
       </c>
       <c r="O21" s="3">
         <f t="shared" si="2"/>
-        <v>70.2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1679,7 +1707,7 @@
       </c>
       <c r="K22" s="3">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>76.7</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="3"/>
@@ -1691,11 +1719,11 @@
       </c>
       <c r="N22" s="3">
         <f t="shared" si="3"/>
-        <v>91.3</v>
+        <v>88.2</v>
       </c>
       <c r="O22" s="3">
         <f t="shared" si="3"/>
-        <v>108.4</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1740,7 +1768,7 @@
       </c>
       <c r="K23" s="3">
         <f t="shared" si="4"/>
-        <v>202.2</v>
+        <v>155</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="4"/>
@@ -1752,11 +1780,11 @@
       </c>
       <c r="N23" s="3">
         <f t="shared" si="4"/>
-        <v>126.9</v>
+        <v>120.8</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" si="4"/>
-        <v>178</v>
+        <v>173.9</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1820,7 +1848,7 @@
       </c>
       <c r="K25" s="3">
         <f t="shared" si="5"/>
-        <v>13.705583756345192</v>
+        <v>11.202013845185647</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="5"/>
@@ -1832,11 +1860,11 @@
       </c>
       <c r="N25" s="3">
         <f t="shared" si="5"/>
-        <v>10.322952710495969</v>
+        <v>10.575793184488845</v>
       </c>
       <c r="O25" s="3">
         <f t="shared" si="5"/>
-        <v>22.444183313748539</v>
+        <v>22.514970059880241</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1881,7 +1909,7 @@
       </c>
       <c r="K26" s="3">
         <f t="shared" si="6"/>
-        <v>53.401015228426388</v>
+        <v>60.478288231592188</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="6"/>
@@ -1893,11 +1921,11 @@
       </c>
       <c r="N26" s="3">
         <f t="shared" si="6"/>
-        <v>30.853517877739336</v>
+        <v>29.72972972972974</v>
       </c>
       <c r="O26" s="3">
         <f t="shared" si="6"/>
-        <v>63.33725029377203</v>
+        <v>64.01197604790417</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1961,7 +1989,7 @@
       </c>
       <c r="K28" s="3">
         <f t="shared" si="7"/>
-        <v>50.7</v>
+        <v>46.7</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="7"/>
@@ -1973,11 +2001,11 @@
       </c>
       <c r="N28" s="3">
         <f t="shared" si="7"/>
-        <v>107.7</v>
+        <v>95.4</v>
       </c>
       <c r="O28" s="3">
         <f t="shared" si="7"/>
-        <v>78.7</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2022,7 +2050,7 @@
       </c>
       <c r="K29" s="3">
         <f t="shared" si="8"/>
-        <v>54.5</v>
+        <v>50.5</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="8"/>
@@ -2034,11 +2062,11 @@
       </c>
       <c r="N29" s="3">
         <f t="shared" si="8"/>
-        <v>114.7</v>
+        <v>102.6</v>
       </c>
       <c r="O29" s="3">
         <f t="shared" si="8"/>
-        <v>82.8</v>
+        <v>81.599999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2083,7 +2111,7 @@
       </c>
       <c r="K30" s="3">
         <f t="shared" si="9"/>
-        <v>61.8</v>
+        <v>58.2</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="9"/>
@@ -2095,11 +2123,11 @@
       </c>
       <c r="N30" s="3">
         <f t="shared" si="9"/>
-        <v>118.5</v>
+        <v>106.2</v>
       </c>
       <c r="O30" s="3">
         <f t="shared" si="9"/>
-        <v>89.3</v>
+        <v>88.1</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2163,7 +2191,7 @@
       </c>
       <c r="K32" s="3">
         <f t="shared" si="10"/>
-        <v>2.5215660252156766</v>
+        <v>2.5903203817314306</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="10"/>
@@ -2175,11 +2203,11 @@
       </c>
       <c r="N32" s="3">
         <f t="shared" si="10"/>
-        <v>3.3702455464612342</v>
+        <v>3.6847492323439042</v>
       </c>
       <c r="O32" s="3">
         <f t="shared" si="10"/>
-        <v>2.2943480693900682</v>
+        <v>2.367531003382183</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2224,7 +2252,7 @@
       </c>
       <c r="K33" s="3">
         <f t="shared" si="11"/>
-        <v>7.3656270736562846</v>
+        <v>7.8391274710293004</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="11"/>
@@ -2236,11 +2264,11 @@
       </c>
       <c r="N33" s="3">
         <f t="shared" si="11"/>
-        <v>5.1998074145402029</v>
+        <v>5.5271238485158563</v>
       </c>
       <c r="O33" s="3">
         <f t="shared" si="11"/>
-        <v>5.9317291550084121</v>
+        <v>6.0315670800450789</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1">
@@ -2451,15 +2479,15 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="12"/>
-        <v>97</v>
+        <v>58.9</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="13"/>
-        <v>124</v>
+        <v>76.7</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="14"/>
-        <v>202.2</v>
+        <v>155</v>
       </c>
       <c r="J45">
         <v>9</v>
@@ -2511,15 +2539,15 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="12"/>
-        <v>73.400000000000006</v>
+        <v>70.2</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="13"/>
-        <v>91.3</v>
+        <v>88.2</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="14"/>
-        <v>126.9</v>
+        <v>120.8</v>
       </c>
       <c r="J48">
         <v>12</v>
@@ -2531,15 +2559,15 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="12"/>
-        <v>70.2</v>
+        <v>67</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="13"/>
-        <v>108.4</v>
+        <v>104.6</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="14"/>
-        <v>178</v>
+        <v>173.9</v>
       </c>
       <c r="J49">
         <v>13</v>
@@ -2654,7 +2682,7 @@
       </c>
       <c r="K52" s="3">
         <f t="shared" si="16"/>
-        <v>13.705583756345192</v>
+        <v>11.202013845185647</v>
       </c>
       <c r="L52" s="3">
         <f t="shared" si="16"/>
@@ -2666,11 +2694,11 @@
       </c>
       <c r="N52" s="3">
         <f t="shared" si="16"/>
-        <v>10.322952710495969</v>
+        <v>10.575793184488845</v>
       </c>
       <c r="O52" s="3">
         <f t="shared" si="16"/>
-        <v>22.444183313748539</v>
+        <v>22.514970059880241</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -2716,7 +2744,7 @@
       </c>
       <c r="K53">
         <f t="shared" si="17"/>
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="L53">
         <f t="shared" si="17"/>
@@ -2728,11 +2756,11 @@
       </c>
       <c r="N53">
         <f t="shared" si="17"/>
-        <v>9.8000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="O53">
         <f t="shared" si="17"/>
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -2777,7 +2805,7 @@
       </c>
       <c r="K54" s="3">
         <f t="shared" si="18"/>
-        <v>39.695431472081196</v>
+        <v>49.276274386406541</v>
       </c>
       <c r="L54" s="3">
         <f t="shared" si="18"/>
@@ -2789,11 +2817,11 @@
       </c>
       <c r="N54" s="3">
         <f t="shared" si="18"/>
-        <v>20.530565167243367</v>
+        <v>19.153936545240896</v>
       </c>
       <c r="O54" s="3">
         <f t="shared" si="18"/>
-        <v>40.893066980023491</v>
+        <v>41.497005988023929</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="1" customFormat="1">
@@ -3014,15 +3042,15 @@
       </c>
       <c r="B66" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>13.705583756345192</v>
+        <v>11.202013845185647</v>
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D66" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>39.695431472081196</v>
+        <v>49.276274386406541</v>
       </c>
       <c r="R66">
         <v>9</v>
@@ -3077,15 +3105,15 @@
       </c>
       <c r="B69" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>10.322952710495969</v>
+        <v>10.575793184488845</v>
       </c>
       <c r="C69" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>9.8000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D69" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>20.530565167243367</v>
+        <v>19.153936545240896</v>
       </c>
       <c r="R69">
         <v>12</v>
@@ -3098,15 +3126,15 @@
       </c>
       <c r="B70" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>22.444183313748539</v>
+        <v>22.514970059880241</v>
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="D70" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>40.893066980023491</v>
+        <v>41.497005988023929</v>
       </c>
       <c r="R70">
         <v>13</v>
@@ -3127,8 +3155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="B29:D42"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3173,7 +3201,7 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -3220,7 +3248,7 @@
         <v>85.5</v>
       </c>
       <c r="K3">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="L3">
         <v>156.30000000000001</v>
@@ -3229,10 +3257,10 @@
         <v>37.200000000000003</v>
       </c>
       <c r="N3">
-        <v>74.5</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="O3">
-        <v>77.7</v>
+        <v>74.599999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1">
@@ -3282,7 +3310,7 @@
       </c>
       <c r="K5">
         <f>'table&amp;first graph'!K21</f>
-        <v>97</v>
+        <v>58.9</v>
       </c>
       <c r="L5">
         <f>'table&amp;first graph'!L21</f>
@@ -3294,11 +3322,11 @@
       </c>
       <c r="N5">
         <f>'table&amp;first graph'!N21</f>
-        <v>73.400000000000006</v>
+        <v>70.2</v>
       </c>
       <c r="O5">
         <f>'table&amp;first graph'!O21</f>
-        <v>70.2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3343,7 +3371,7 @@
       </c>
       <c r="K6">
         <f>'table&amp;first graph'!K22</f>
-        <v>124</v>
+        <v>76.7</v>
       </c>
       <c r="L6">
         <f>'table&amp;first graph'!L22</f>
@@ -3355,11 +3383,11 @@
       </c>
       <c r="N6">
         <f>'table&amp;first graph'!N22</f>
-        <v>91.3</v>
+        <v>88.2</v>
       </c>
       <c r="O6">
         <f>'table&amp;first graph'!O22</f>
-        <v>108.4</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -3404,7 +3432,7 @@
       </c>
       <c r="K7">
         <f>'table&amp;first graph'!K23</f>
-        <v>202.2</v>
+        <v>155</v>
       </c>
       <c r="L7">
         <f>'table&amp;first graph'!L23</f>
@@ -3416,11 +3444,11 @@
       </c>
       <c r="N7">
         <f>'table&amp;first graph'!N23</f>
-        <v>126.9</v>
+        <v>120.8</v>
       </c>
       <c r="O7">
         <f>'table&amp;first graph'!O23</f>
-        <v>178</v>
+        <v>173.9</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1">
@@ -3470,7 +3498,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>17.800000000000004</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
@@ -3482,11 +3510,11 @@
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>17.899999999999991</v>
+        <v>18</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>38.200000000000003</v>
+        <v>37.599999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -3531,7 +3559,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>105.19999999999999</v>
+        <v>96.1</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
@@ -3543,11 +3571,11 @@
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>53.5</v>
+        <v>50.599999999999994</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>107.8</v>
+        <v>106.9</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1">
@@ -3597,7 +3625,7 @@
       </c>
       <c r="K12" s="3">
         <f t="shared" si="2"/>
-        <v>17.181818181818183</v>
+        <v>11.32727272727273</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
@@ -3609,11 +3637,11 @@
       </c>
       <c r="N12" s="3">
         <f t="shared" si="2"/>
-        <v>11.390909090909085</v>
+        <v>11.454545454545455</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" si="2"/>
-        <v>24.309090909090912</v>
+        <v>23.927272727272722</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -3658,7 +3686,7 @@
       </c>
       <c r="K13" s="3">
         <f t="shared" si="3"/>
-        <v>66.945454545454538</v>
+        <v>61.154545454545456</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="3"/>
@@ -3670,11 +3698,11 @@
       </c>
       <c r="N13" s="3">
         <f t="shared" si="3"/>
-        <v>34.045454545454547</v>
+        <v>32.199999999999996</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="3"/>
-        <v>68.599999999999994</v>
+        <v>68.027272727272731</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1">
@@ -3724,7 +3752,7 @@
       </c>
       <c r="K15" s="3">
         <f t="shared" si="4"/>
-        <v>123.18181818181819</v>
+        <v>79.327272727272728</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="4"/>
@@ -3736,11 +3764,11 @@
       </c>
       <c r="N15" s="3">
         <f t="shared" si="4"/>
-        <v>85.890909090909091</v>
+        <v>84.354545454545459</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" si="4"/>
-        <v>102.00909090909092</v>
+        <v>98.527272727272717</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -3785,7 +3813,7 @@
       </c>
       <c r="K16" s="3">
         <f t="shared" si="5"/>
-        <v>172.94545454545454</v>
+        <v>129.15454545454546</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="5"/>
@@ -3797,11 +3825,11 @@
       </c>
       <c r="N16" s="3">
         <f t="shared" si="5"/>
-        <v>108.54545454545455</v>
+        <v>105.1</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="5"/>
-        <v>146.30000000000001</v>
+        <v>142.62727272727273</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="4" customFormat="1">
@@ -3851,7 +3879,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>124</v>
+        <v>76.7</v>
       </c>
       <c r="L18">
         <f t="shared" si="6"/>
@@ -3863,11 +3891,11 @@
       </c>
       <c r="N18">
         <f t="shared" si="6"/>
-        <v>91.3</v>
+        <v>88.2</v>
       </c>
       <c r="O18">
         <f t="shared" si="6"/>
-        <v>108.4</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3912,7 +3940,7 @@
       </c>
       <c r="K19" s="3">
         <f t="shared" si="7"/>
-        <v>123.18181818181819</v>
+        <v>79.327272727272728</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="7"/>
@@ -3924,11 +3952,11 @@
       </c>
       <c r="N19" s="3">
         <f t="shared" si="7"/>
-        <v>85.890909090909091</v>
+        <v>84.354545454545459</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="7"/>
-        <v>102.00909090909092</v>
+        <v>98.527272727272717</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3973,7 +4001,7 @@
       </c>
       <c r="K20" s="3">
         <f t="shared" si="8"/>
-        <v>-0.81818181818181301</v>
+        <v>2.6272727272727252</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="8"/>
@@ -3985,11 +4013,11 @@
       </c>
       <c r="N20" s="3">
         <f t="shared" si="8"/>
-        <v>-5.4090909090909065</v>
+        <v>-3.8454545454545439</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" si="8"/>
-        <v>-6.3909090909090907</v>
+        <v>-6.0727272727272776</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -4034,7 +4062,7 @@
       </c>
       <c r="K22">
         <f t="shared" si="9"/>
-        <v>202.2</v>
+        <v>155</v>
       </c>
       <c r="L22">
         <f t="shared" si="9"/>
@@ -4046,11 +4074,11 @@
       </c>
       <c r="N22">
         <f t="shared" si="9"/>
-        <v>126.9</v>
+        <v>120.8</v>
       </c>
       <c r="O22">
         <f t="shared" si="9"/>
-        <v>178</v>
+        <v>173.9</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -4095,7 +4123,7 @@
       </c>
       <c r="K23" s="3">
         <f t="shared" si="10"/>
-        <v>172.94545454545454</v>
+        <v>129.15454545454546</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="10"/>
@@ -4107,11 +4135,11 @@
       </c>
       <c r="N23" s="3">
         <f t="shared" si="10"/>
-        <v>108.54545454545455</v>
+        <v>105.1</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" si="10"/>
-        <v>146.30000000000001</v>
+        <v>142.62727272727273</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -4156,7 +4184,7 @@
       </c>
       <c r="K24" s="3">
         <f t="shared" si="11"/>
-        <v>-29.25454545454545</v>
+        <v>-25.845454545454544</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="11"/>
@@ -4168,11 +4196,11 @@
       </c>
       <c r="N24" s="3">
         <f t="shared" si="11"/>
-        <v>-18.354545454545459</v>
+        <v>-15.700000000000003</v>
       </c>
       <c r="O24" s="3">
         <f t="shared" si="11"/>
-        <v>-31.699999999999989</v>
+        <v>-31.27272727272728</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1">
@@ -4526,29 +4554,29 @@
       </c>
       <c r="B38" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>124</v>
+        <v>76.7</v>
       </c>
       <c r="C38" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>123.18181818181819</v>
+        <v>79.327272727272728</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.81818181818181301</v>
+        <v>2.6272727272727252</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>202.2</v>
+        <v>155</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>172.94545454545454</v>
+        <v>129.15454545454546</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>-29.25454545454545</v>
+        <v>-25.845454545454544</v>
       </c>
       <c r="R38">
         <v>9</v>
@@ -4628,29 +4656,29 @@
       </c>
       <c r="B41" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>91.3</v>
+        <v>88.2</v>
       </c>
       <c r="C41" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>85.890909090909091</v>
+        <v>84.354545454545459</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>-5.4090909090909065</v>
+        <v>-3.8454545454545439</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>126.9</v>
+        <v>120.8</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>108.54545454545455</v>
+        <v>105.1</v>
       </c>
       <c r="I41" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>-18.354545454545459</v>
+        <v>-15.700000000000003</v>
       </c>
       <c r="R41">
         <v>12</v>
@@ -4662,29 +4690,29 @@
       </c>
       <c r="B42" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>108.4</v>
+        <v>104.6</v>
       </c>
       <c r="C42" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>102.00909090909092</v>
+        <v>98.527272727272717</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>-6.3909090909090907</v>
+        <v>-6.0727272727272776</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>178</v>
+        <v>173.9</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>146.30000000000001</v>
+        <v>142.62727272727273</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>-31.699999999999989</v>
+        <v>-31.27272727272728</v>
       </c>
       <c r="R42">
         <v>13</v>
@@ -4692,7 +4720,7 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B48" s="6"/>
     </row>

--- a/data/cost-of-safety.xlsx
+++ b/data/cost-of-safety.xlsx
@@ -337,8 +337,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -478,7 +484,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="133">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -542,6 +548,9 @@
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -605,6 +614,9 @@
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -936,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3120,22 +3132,10 @@
       </c>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="3">
-        <f t="shared" ca="1" si="19"/>
-        <v>5.3</v>
-      </c>
-      <c r="B70" s="3">
-        <f t="shared" ca="1" si="20"/>
-        <v>22.514970059880241</v>
-      </c>
-      <c r="C70" s="3">
-        <f t="shared" ca="1" si="21"/>
-        <v>10.3</v>
-      </c>
-      <c r="D70" s="3">
-        <f t="shared" ca="1" si="22"/>
-        <v>41.497005988023929</v>
-      </c>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
       <c r="R70">
         <v>13</v>
       </c>
@@ -3155,8 +3155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D42" sqref="A27:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/cost-of-safety.xlsx
+++ b/data/cost-of-safety.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table&amp;first graph" sheetId="1" r:id="rId1"/>
@@ -948,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A70" sqref="A70:E70"/>
     </sheetView>
   </sheetViews>
@@ -2881,19 +2881,19 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="3">
-        <f t="shared" ref="A58:A70" ca="1" si="19">OFFSET($B$51,0,$R58)</f>
+        <f t="shared" ref="A58:A69" ca="1" si="19">OFFSET($B$51,0,$R58)</f>
         <v>7.8</v>
       </c>
       <c r="B58" s="3">
-        <f t="shared" ref="B58:B70" ca="1" si="20">OFFSET($B$51,1,$R58)</f>
+        <f t="shared" ref="B58:B69" ca="1" si="20">OFFSET($B$51,1,$R58)</f>
         <v>34.694960212201607</v>
       </c>
       <c r="C58" s="3">
-        <f t="shared" ref="C58:C70" ca="1" si="21">OFFSET($B$51,2,$R58)</f>
+        <f t="shared" ref="C58:C69" ca="1" si="21">OFFSET($B$51,2,$R58)</f>
         <v>15.9</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" ref="D58:D70" ca="1" si="22">OFFSET($B$51,3,$R58)</f>
+        <f t="shared" ref="D58:D69" ca="1" si="22">OFFSET($B$51,3,$R58)</f>
         <v>71.034482758620697</v>
       </c>
       <c r="R58">
@@ -3155,8 +3155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="A27:D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
